--- a/quiz-app-tasks.xlsx
+++ b/quiz-app-tasks.xlsx
@@ -480,12 +480,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -493,6 +487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +612,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -701,42 +701,41 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -745,9 +744,6 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -757,7 +753,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -1065,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.25"/>
@@ -1079,20 +1080,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="40"/>
@@ -1110,99 +1111,99 @@
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
@@ -1220,27 +1221,27 @@
     </row>
     <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
@@ -1252,59 +1253,59 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
@@ -1316,59 +1317,59 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
@@ -1380,59 +1381,59 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
@@ -1444,67 +1445,67 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
@@ -1550,11 +1551,11 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="44"/>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
@@ -1566,27 +1567,27 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="44"/>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
@@ -1598,73 +1599,73 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -1676,11 +1677,11 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
@@ -1692,139 +1693,139 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="44"/>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="44"/>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
       <c r="G48" s="48"/>
@@ -1836,41 +1837,41 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="44"/>
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="44"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="42"/>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -1882,11 +1883,11 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="44"/>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="48"/>
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
@@ -1898,59 +1899,59 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="44"/>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="44"/>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="44"/>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
       <c r="E56" s="48"/>
       <c r="F56" s="48"/>
       <c r="G56" s="48"/>
@@ -1962,137 +1963,137 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="44"/>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="44"/>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="44"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
       <c r="E65" s="42"/>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
@@ -2104,11 +2105,11 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="44"/>
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
       <c r="E66" s="48"/>
       <c r="F66" s="48"/>
       <c r="G66" s="48"/>
@@ -2120,99 +2121,99 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="44"/>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="44"/>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="44"/>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="44"/>
@@ -2371,6 +2372,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B16:D16"/>
@@ -2387,40 +2422,6 @@
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2438,14 +2439,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2453,12 +2454,12 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2540,12 +2541,12 @@
         <v>41</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
@@ -2608,7 +2609,7 @@
       </c>
       <c r="C9" s="23">
         <f ca="1">TODAY()+30</f>
-        <v>42573</v>
+        <v>42577</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>33</v>
@@ -2633,12 +2634,12 @@
         <v>41</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
@@ -2708,12 +2709,12 @@
         <v>41</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
@@ -2783,12 +2784,12 @@
         <v>41</v>
       </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
@@ -2858,12 +2859,12 @@
         <v>41</v>
       </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
